--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3280733.980182138</v>
+        <v>3389875.233742265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8046162.193520044</v>
+        <v>8068609.069002066</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>89.45108029265349</v>
+        <v>345.0466240460424</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>90.69811547110055</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>132.1131310255577</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>299.6788512858987</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>178.35163222898</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>76.10427343305864</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.06769886595227</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>22.50810394939419</v>
       </c>
       <c r="W8" t="n">
-        <v>244.2876198546652</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>7.284487772399359</v>
+        <v>87.95380671210111</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>213.6774542100517</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.4912798484951</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>48.13676080754342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>74.41917683133158</v>
       </c>
     </row>
     <row r="23">
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>95.25381996636241</v>
+        <v>73.56194264363164</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>166.0016338997254</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2893995353475</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>137.521397957954</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>125.8152577453153</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1685137621102</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5636880601542</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>153.4164748164153</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>66.39615665301106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>100.5140508960364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>33.48499328953133</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4189,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1420.453969953914</v>
+        <v>1227.769964901404</v>
       </c>
       <c r="C2" t="n">
-        <v>1420.453969953914</v>
+        <v>1227.769964901404</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>608.5986938974692</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>846.2214751156594</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1457.531227552839</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1763.006333788422</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2038.122553105055</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929725</v>
+        <v>2004.509136941337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1420.453969953914</v>
+        <v>1614.369804965525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>775.2612895234822</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1039.200821018968</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1324.5346914523</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1387.807075285521</v>
+        <v>486.1770312829269</v>
       </c>
       <c r="C4" t="n">
-        <v>1218.870892357614</v>
+        <v>486.1770312829269</v>
       </c>
       <c r="D4" t="n">
-        <v>1068.754252945278</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936618</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936618</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="X4" t="n">
-        <v>1790.248119259291</v>
+        <v>888.6180752566968</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.455540115761</v>
+        <v>667.8254961131667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5363853637798</v>
+        <v>1146.0956252021</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>777.133108261688</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>777.133108261688</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>777.133108261688</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>366.1472034720804</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>354.5057657126164</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.741315664793</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.741315664793</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.741315664793</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.275557403713</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.136225427902</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>532.0623520740555</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>829.3743011903703</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.3660817020693</v>
+        <v>549.0851157467799</v>
       </c>
       <c r="C7" t="n">
-        <v>545.4298987741624</v>
+        <v>549.0851157467799</v>
       </c>
       <c r="D7" t="n">
-        <v>395.3132593618267</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="E7" t="n">
-        <v>395.3132593618267</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>395.3132593618267</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>227.3267946701053</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>78.58789653361146</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323091</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="W7" t="n">
-        <v>896.0145465323091</v>
+        <v>769.8776948903101</v>
       </c>
       <c r="X7" t="n">
-        <v>896.0145465323091</v>
+        <v>769.8776948903101</v>
       </c>
       <c r="Y7" t="n">
-        <v>896.0145465323091</v>
+        <v>549.0851157467799</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2313.678079548491</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.838515435611</v>
+        <v>1960.909424278377</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.838515435611</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1716.6991834598</v>
+        <v>1587.443666017298</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.2725968131175</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="C10" t="n">
-        <v>479.3364138852106</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="D10" t="n">
-        <v>479.3364138852106</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="E10" t="n">
-        <v>479.3364138852106</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="F10" t="n">
-        <v>332.4464663873002</v>
+        <v>308.6182730630527</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4600016955788</v>
+        <v>140.6420843249421</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>972.914941495941</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541375</v>
+        <v>683.4977714589804</v>
       </c>
       <c r="X10" t="n">
-        <v>829.9210616433572</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.9210616433572</v>
+        <v>455.5082205609631</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1981.226733154182</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1692.151506498379</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1437.467018292492</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1148.049848255532</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>920.0602973575143</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6074,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3200.825397924057</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.88921499615</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583814</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3831.255992795844</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.266441897827</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>3382.473862754297</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388645</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.6680198981028</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2319.876964645598</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2100.27549966854</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1811.200273012738</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.515784806851</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.09861476989</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X34" t="n">
-        <v>1039.109063871873</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y34" t="n">
-        <v>818.3164847283425</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2224.951243654466</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.349778677406</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.274552021604</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1461.590063815717</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.172893778757</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>944.1833428807391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3275.130390493382</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>3059.51117811654</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>2909.394538704204</v>
       </c>
       <c r="E46" t="n">
         <v>2875.571313159223</v>
@@ -7837,19 +7839,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X46" t="n">
-        <v>3677.571434467152</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y46" t="n">
-        <v>3456.778855323622</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>318.4234200803826</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.4330134067488</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>268.4761170805983</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530997</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.7491560325414</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.727996117236586</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.0317184880959</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>144.1654765207632</v>
       </c>
     </row>
     <row r="23">
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>191.2691783702286</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>13.83034628221191</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>10.32607348286487</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>7.899650064977237</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>55.21102825632927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>111.4161395899846</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>31.68313303847361</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>27.60981118522926</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>185.7414866708169</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>66.73277020259141</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>112.9489693570378</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708722.7348207157</v>
+        <v>731535.1779719515</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708722.7348207157</v>
+        <v>708528.912276098</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708722.7348207157</v>
+        <v>708528.912276098</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778549</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
@@ -26338,22 +26340,22 @@
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.267780493380445e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.267780493380445e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694999</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695101</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26448,13 +26450,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695082</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695055</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695103</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-599457.5532544156</v>
+        <v>-449876.2567096918</v>
       </c>
       <c r="C6" t="n">
-        <v>515294.2303215046</v>
+        <v>343625.3890012026</v>
       </c>
       <c r="D6" t="n">
-        <v>515294.2303215044</v>
+        <v>516389.7487910974</v>
       </c>
       <c r="E6" t="n">
-        <v>111536.4877408578</v>
+        <v>118133.0616196526</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.9293654035</v>
+        <v>619021.9293654034</v>
       </c>
       <c r="G6" t="n">
+        <v>619021.9293654033</v>
+      </c>
+      <c r="H6" t="n">
         <v>619021.9293654034</v>
-      </c>
-      <c r="H6" t="n">
-        <v>619021.9293654031</v>
       </c>
       <c r="I6" t="n">
         <v>619021.9293654033</v>
       </c>
       <c r="J6" t="n">
-        <v>451416.7515554207</v>
+        <v>449607.9125393552</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654031</v>
+        <v>619021.9293654036</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.9293654031</v>
+        <v>619021.929365403</v>
       </c>
       <c r="M6" t="n">
-        <v>486414.6356364764</v>
+        <v>488137.4724611682</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654033</v>
+        <v>619021.9293654034</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654031</v>
+        <v>619021.9293654034</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654031</v>
+        <v>619021.9293654034</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.584725616725557e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.584725616725557e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.584725616725557e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>265.2319613280295</v>
+        <v>9.636417574640575</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>55.73584717546862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>93.59652436347946</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>1.107435962561055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>72.69361789948206</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>72.51119958515372</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>77.72889633794831</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>305.2441545207407</v>
       </c>
       <c r="W8" t="n">
-        <v>104.9533488627478</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>139.9670213827295</v>
+        <v>59.20725349934585</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28096,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.353930385832269e-15</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>435.9638754389779</v>
       </c>
       <c r="P15" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>545.3845241768652</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>617.4845984213936</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>496.3643456887893</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>509.6932400618682</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>420.9869638903428</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>557.1022482807659</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35659,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>293.3676309945334</v>
       </c>
       <c r="P15" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>406.830144396991</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,13 +37551,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3389875.233742265</v>
+        <v>3385719.047434298</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8068609.069002066</v>
+        <v>8068609.069002067</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>345.0466240460424</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>287.6030203759245</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.36089152870251</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>132.1131310255577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>86.43593050699478</v>
       </c>
       <c r="H5" t="n">
-        <v>299.6788512858987</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>76.10427343305864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.53471394969549</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>22.50810394939419</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>87.95380671210111</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -1347,7 +1347,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>194.0804734522168</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>213.6774542100517</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>101.4912798484951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.41917683133158</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>129.719450923317</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>73.56194264363164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0016338997254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>137.521397957954</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.1685137621102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>135.5636880601542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.4164748164153</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>147.4507120583058</v>
       </c>
       <c r="E43" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>33.48499328953133</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1227.769964901404</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="C2" t="n">
-        <v>1227.769964901404</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="D2" t="n">
-        <v>879.2380214205527</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>563.4441848722098</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974692</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156594</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1457.531227552839</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1763.006333788422</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105055</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394156</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>2004.509136941337</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1614.369804965525</v>
+        <v>1651.538031115762</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234822</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.200821018968</v>
+        <v>1472.557493554226</v>
       </c>
       <c r="N3" t="n">
-        <v>1324.5346914523</v>
+        <v>2113.58070317412</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2352.385654925577</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.1770312829269</v>
+        <v>68.32600838211519</v>
       </c>
       <c r="C4" t="n">
-        <v>486.1770312829269</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>336.0603918705912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>336.0603918705912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>336.0603918705912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4524,16 +4524,16 @@
         <v>1022.06568235322</v>
       </c>
       <c r="V4" t="n">
-        <v>1022.06568235322</v>
+        <v>767.3811941473328</v>
       </c>
       <c r="W4" t="n">
-        <v>1022.06568235322</v>
+        <v>477.9640241103722</v>
       </c>
       <c r="X4" t="n">
-        <v>888.6180752566968</v>
+        <v>249.9744732123549</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8254961131667</v>
+        <v>249.9744732123549</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.0956252021</v>
+        <v>984.5477679161465</v>
       </c>
       <c r="C5" t="n">
-        <v>777.133108261688</v>
+        <v>615.5852509757349</v>
       </c>
       <c r="D5" t="n">
-        <v>777.133108261688</v>
+        <v>615.5852509757349</v>
       </c>
       <c r="E5" t="n">
-        <v>777.133108261688</v>
+        <v>615.5852509757349</v>
       </c>
       <c r="F5" t="n">
-        <v>366.1472034720804</v>
+        <v>204.5993461861273</v>
       </c>
       <c r="G5" t="n">
-        <v>354.5057657126164</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.695465266221</v>
+        <v>1761.28693995608</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.695465266221</v>
+        <v>1371.147607980268</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>532.0623520740555</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>829.3743011903703</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.0851157467799</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C7" t="n">
-        <v>549.0851157467799</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D7" t="n">
-        <v>472.2121122790439</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.294864927271</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>769.8776948903101</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X7" t="n">
-        <v>769.8776948903101</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.0851157467799</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>1231.142476298801</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1231.142476298801</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>872.8767776920502</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718912</v>
+        <v>487.0885250938059</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>76.10262030419835</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>64.46118254473437</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>64.46118254473437</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="V8" t="n">
-        <v>2313.678079548491</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="W8" t="n">
-        <v>1960.909424278377</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="X8" t="n">
-        <v>1587.443666017298</v>
+        <v>2007.881648338734</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.443666017298</v>
+        <v>1617.742316362922</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457228</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="C10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F10" t="n">
-        <v>308.6182730630527</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G10" t="n">
-        <v>140.6420843249421</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701828</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.599429701828</v>
+        <v>929.4371851838877</v>
       </c>
       <c r="V10" t="n">
-        <v>972.914941495941</v>
+        <v>674.7526969780008</v>
       </c>
       <c r="W10" t="n">
-        <v>683.4977714589804</v>
+        <v>385.3355269410403</v>
       </c>
       <c r="X10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="Y10" t="n">
-        <v>455.5082205609631</v>
+        <v>157.3459760430229</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1981.226733154182</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1692.151506498379</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1437.467018292492</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1148.049848255532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>920.0602973575143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.2677182139842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382112</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,10 +5846,10 @@
         <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1359.396373079494</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>456.5257005456925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,19 +7019,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.5772922261132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5348780504994</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.951243654466</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2005.349778677406</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1716.274552021604</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1461.590063815717</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.172893778757</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>944.1833428807391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>944.1833428807391</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
         <v>343.0994656851783</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3228.447361044447</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>3059.51117811654</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2909.394538704204</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>318.4234200803826</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.17774030888881</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
-        <v>268.4761170805983</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>232.4400048971988</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530997</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>162.7491560325414</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.727996117236586</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>185.0317184880959</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.89602209489536</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.83034628221191</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>7.899650064977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.4161395899846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.68313303847361</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>27.60981118522926</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.164760959906602</v>
       </c>
       <c r="E43" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>112.9489693570378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778552</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.267780493380445e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.267780493380445e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26426,13 +26426,13 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694999</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695101</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26447,19 +26447,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.2567096918</v>
+        <v>-449876.2567096919</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012026</v>
+        <v>343625.3890012024</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.7487910974</v>
+        <v>516389.7487910976</v>
       </c>
       <c r="E6" t="n">
-        <v>118133.0616196526</v>
+        <v>117785.6823652959</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110465</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654033</v>
+        <v>618674.5501110459</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110463</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.9293654033</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="J6" t="n">
-        <v>449607.9125393552</v>
+        <v>449260.5332849987</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654036</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.929365403</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="M6" t="n">
-        <v>488137.4724611682</v>
+        <v>487790.0932068111</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110463</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110463</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654034</v>
+        <v>618674.5501110462</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.584725616725557e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.584725616725557e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.584725616725557e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>9.636417574640575</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>94.32734969633731</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>150.8859295699253</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>93.59652436347946</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>325.0890928748746</v>
       </c>
       <c r="H5" t="n">
-        <v>1.107435962561055</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>72.51119958515372</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>52.30085149798423</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>305.2441545207407</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>59.20725349934585</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>92.1461257674888</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.353930385832269e-15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>435.9638754389779</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P21" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>314.3020503687028</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>617.4845984213936</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
         <v>308.560713369276</v>
@@ -34716,7 +34716,7 @@
         <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185448</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>313.7833276780667</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>509.6932400618682</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>420.9869638903428</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>557.1022482807659</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>293.3676309945334</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P21" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36366,10 +36366,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>245.9177694853266</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>171.7058059242583</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3385719.047434298</v>
+        <v>3387479.577737082</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8068609.069002067</v>
+        <v>8068609.069002066</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>287.6030203759245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>222.7891134897422</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>16.36089152870251</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.96483578851011</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>229.7399182236926</v>
       </c>
       <c r="G5" t="n">
-        <v>86.43593050699478</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>60.86538463674658</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>119.3502236675133</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>46.95498114271049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.53471394969549</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>76.60129660960703</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>194.0804734522168</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>129.719450923317</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>147.4507120583058</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1264.93819105164</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>1264.93819105164</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>1264.93819105164</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618174</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>2364.953257565488</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>2364.953257565488</v>
       </c>
       <c r="Y2" t="n">
-        <v>1651.538031115762</v>
+        <v>1974.813925589677</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.91199915294</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1472.557493554226</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.58070317412</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925577</v>
+        <v>1949.990352833222</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.32600838211519</v>
+        <v>680.7717144893356</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>511.8355315614288</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>361.718892149093</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>213.8057985666999</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>66.91585106878952</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103722</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>249.9744732123549</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9744732123549</v>
+        <v>862.4201793195754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>984.5477679161465</v>
+        <v>1408.518284685965</v>
       </c>
       <c r="C5" t="n">
-        <v>615.5852509757349</v>
+        <v>1039.555767745554</v>
       </c>
       <c r="D5" t="n">
-        <v>615.5852509757349</v>
+        <v>681.2900691388033</v>
       </c>
       <c r="E5" t="n">
-        <v>615.5852509757349</v>
+        <v>295.5018165405591</v>
       </c>
       <c r="F5" t="n">
-        <v>204.5993461861273</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.75269821716</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.75269821716</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.28693995608</v>
+        <v>1408.518284685965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.147607980268</v>
+        <v>1408.518284685965</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>727.1359052451301</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C7" t="n">
-        <v>558.1997223172232</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D7" t="n">
-        <v>408.0830829048874</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>260.1699893224943</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2800418245839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1195.84951595396</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.566500116917</v>
+        <v>1195.84951595396</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.5769492189</v>
+        <v>967.8599650559422</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.7843700753698</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1231.142476298801</v>
+        <v>1319.759455348119</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.142476298801</v>
+        <v>1319.759455348119</v>
       </c>
       <c r="D8" t="n">
-        <v>872.8767776920502</v>
+        <v>961.4937567413688</v>
       </c>
       <c r="E8" t="n">
-        <v>487.0885250938059</v>
+        <v>575.7055041431245</v>
       </c>
       <c r="F8" t="n">
-        <v>76.10262030419835</v>
+        <v>164.7195993535169</v>
       </c>
       <c r="G8" t="n">
-        <v>64.46118254473437</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>64.46118254473437</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135508</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477376</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187501</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599814</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599814</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.347406599814</v>
+        <v>1672.528110618233</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.347406599814</v>
+        <v>1319.759455348119</v>
       </c>
       <c r="X8" t="n">
-        <v>2007.881648338734</v>
+        <v>1319.759455348119</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.742316362922</v>
+        <v>1319.759455348119</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>804.2903793658382</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1445.313588985732</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.3459760430229</v>
+        <v>939.1780282016796</v>
       </c>
       <c r="C10" t="n">
-        <v>157.3459760430229</v>
+        <v>770.2418452737727</v>
       </c>
       <c r="D10" t="n">
-        <v>157.3459760430229</v>
+        <v>620.1252058614369</v>
       </c>
       <c r="E10" t="n">
-        <v>157.3459760430229</v>
+        <v>472.2121122790438</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="G10" t="n">
         <v>157.3459760430229</v>
@@ -4959,55 +4959,55 @@
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080545</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225442</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317419</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="U10" t="n">
-        <v>929.4371851838877</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="V10" t="n">
-        <v>674.7526969780008</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="W10" t="n">
-        <v>385.3355269410403</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="X10" t="n">
-        <v>157.3459760430229</v>
+        <v>1341.619072175449</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.3459760430229</v>
+        <v>1120.826493031919</v>
       </c>
     </row>
     <row r="11">
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,13 +5606,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>763.7541388327643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6882,25 +6882,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
         <v>753.3092412490405</v>
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,13 +6970,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -7125,7 +7125,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577793</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>47.17774030888881</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>196.3826133675373</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>191.4694788103614</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>81.0116747845355</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530993</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>18.89602209489536</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>1.164760959906602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>16.89590291932146</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731535.1779719515</v>
+        <v>731535.1779719512</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="10">
@@ -26316,43 +26316,43 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260477</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042354</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695011</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695117</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695091</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.2567096919</v>
+        <v>-449876.2567096943</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012024</v>
+        <v>343625.3890012054</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.7487910976</v>
+        <v>516389.7487910972</v>
       </c>
       <c r="E6" t="n">
-        <v>117785.6823652959</v>
+        <v>118098.3236942163</v>
       </c>
       <c r="F6" t="n">
-        <v>618674.5501110465</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="G6" t="n">
-        <v>618674.5501110459</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="H6" t="n">
-        <v>618674.5501110463</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="I6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399671</v>
       </c>
       <c r="J6" t="n">
-        <v>449260.5332849987</v>
+        <v>449573.1746139196</v>
       </c>
       <c r="K6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="L6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="M6" t="n">
-        <v>487790.0932068111</v>
+        <v>488102.734535732</v>
       </c>
       <c r="N6" t="n">
-        <v>618674.5501110463</v>
+        <v>618987.1914399677</v>
       </c>
       <c r="O6" t="n">
-        <v>618674.5501110463</v>
+        <v>618987.1914399678</v>
       </c>
       <c r="P6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399675</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498444</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918296</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.498191535246</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94.32734969633731</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>126.4518552276708</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150.8859295699253</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>151.6737188942972</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27593,19 +27593,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>177.1361275180188</v>
       </c>
       <c r="G5" t="n">
-        <v>325.0890928748746</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>105.4310422139829</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27824,7 +27824,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -27833,16 +27833,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.2344296845815</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>364.5700422391589</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>52.30085149798423</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>24.4988520109374</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>92.1461257674888</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.151623085328</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839331</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31609,31 +31609,31 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973637</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.24036071484306</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488877</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>357.9244589488877</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,16 +33262,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>313.7833276780667</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>370.4522708965371</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>380.0164378035054</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35032,10 +35032,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153407</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873422</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.7162976096198</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>381.326774902025</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225501</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978359</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
